--- a/app/tmp/reporte_ovejas.xlsx
+++ b/app/tmp/reporte_ovejas.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,11 +480,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>aleja</t>
+          <t>lacy</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>38353</v>
+        <v>45546</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -493,11 +493,63 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Hembra</t>
+          <t>Macho</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>lacy</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>45546</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>dorper</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Macho</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>lacy</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>45546</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>dorper</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Macho</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/app/tmp/reporte_ovejas.xlsx
+++ b/app/tmp/reporte_ovejas.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,11 +480,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>lacy</t>
+          <t>juan</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>45546</v>
+        <v>45547</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -493,12 +493,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Macho</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+          <t>Hembra</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -507,11 +509,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>lacy</t>
+          <t>juan</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>45546</v>
+        <v>45547</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -523,8 +525,12 @@
           <t>Macho</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -532,11 +538,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>lacy</t>
+          <t>juan</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>45546</v>
+        <v>45547</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -548,8 +554,128 @@
           <t>Macho</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>juan</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>45548</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>dorper</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Macho</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>juanito</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>45548</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>dorper</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Hembra</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ana</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>45547</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>dorper</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Hembra</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ana</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>dorper</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Hembra</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/app/tmp/reporte_ovejas.xlsx
+++ b/app/tmp/reporte_ovejas.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,15 +476,15 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>juan</t>
+          <t>raquel</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>45547</v>
+        <v>45557</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -493,27 +493,23 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Hembra</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2</v>
-      </c>
+          <t>Macho</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>juan</t>
+          <t>leyla</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>45547</v>
+        <v>45563</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -522,27 +518,23 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Macho</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2</v>
-      </c>
+          <t>Hembra</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>juan</t>
+          <t>l</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>45547</v>
+        <v>45563</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -554,128 +546,8 @@
           <t>Macho</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>juan</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>45548</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>dorper</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Macho</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>juanito</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>45548</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>dorper</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Hembra</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ana</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>45547</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>dorper</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Hembra</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ana</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>45561</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>dorper</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Hembra</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2</v>
-      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/app/tmp/reporte_ovejas.xlsx
+++ b/app/tmp/reporte_ovejas.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,6 +549,56 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>gemela</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>45564</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>dorper</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Hembra</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>leylaa</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>45564</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>dorperll</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Hembra</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
